--- a/doc/Cubicacion-Proyecto.xlsx
+++ b/doc/Cubicacion-Proyecto.xlsx
@@ -248,27 +248,15 @@
     <t>Costo por Hora</t>
   </si>
   <si>
-    <t>FormularioActualizar</t>
-  </si>
-  <si>
     <t>FormularioActualizarUsuario</t>
   </si>
   <si>
-    <t>FormularioEliminar</t>
-  </si>
-  <si>
     <t>FormularioEliminarUsuario</t>
   </si>
   <si>
-    <t>FormularioIngresar</t>
-  </si>
-  <si>
     <t>FormularioIngresarUsuario</t>
   </si>
   <si>
-    <t>FormularioListar</t>
-  </si>
-  <si>
     <t>FormularioListarUsuario</t>
   </si>
   <si>
@@ -279,6 +267,18 @@
   </si>
   <si>
     <t>Buscador Avanzado</t>
+  </si>
+  <si>
+    <t>FormularioActualizarContacto</t>
+  </si>
+  <si>
+    <t>FormularioIngresarContacto</t>
+  </si>
+  <si>
+    <t>FormularioListarContacto</t>
+  </si>
+  <si>
+    <t>FormularioEliminarContacto</t>
   </si>
 </sst>
 </file>
@@ -1107,6 +1107,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1214,6 +1257,49 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1711,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1845,7 @@
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>16</v>
@@ -1796,7 +1882,7 @@
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -1829,86 +1915,86 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
+      <c r="A4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="30">
+        <v>14</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>B4*1</f>
+        <v>14</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+        <f>B4*1</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="30">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>SUM(B4:F4)</f>
+        <v>44</v>
       </c>
       <c r="H4" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="3"/>
-        <v>5.4880000000000004</v>
+        <f>G4*H4</f>
+        <v>30.184000000000001</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
+      <c r="A5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="30">
+        <v>4</v>
       </c>
       <c r="C5" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>B5*1</f>
+        <v>4</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+        <f>B5*1</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="30">
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>SUM(B5:F5)</f>
+        <v>14</v>
       </c>
       <c r="H5" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
-        <v>5.4880000000000004</v>
+        <f>G5*H5</f>
+        <v>9.604000000000001</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" s="30">
         <v>14</v>
       </c>
       <c r="C6" s="14">
-        <f t="shared" si="0"/>
+        <f>B6*1</f>
         <v>14</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="1"/>
+        <f>B6*1</f>
         <v>14</v>
       </c>
       <c r="E6" s="30">
@@ -1918,32 +2004,32 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(B6:F6)</f>
         <v>44</v>
       </c>
-      <c r="H6" s="19">
-        <v>0.68600000000000005</v>
+      <c r="H6" s="2">
+        <v>0.57099999999999995</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>30.184000000000001</v>
+        <f>G6*H6</f>
+        <v>25.123999999999999</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>B7*1</f>
+        <v>6</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>B7*1</f>
+        <v>6</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
@@ -1952,89 +2038,89 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H7" s="19">
+        <f>SUM(B7:F7)</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I7" s="2">
+        <f>G7*H7</f>
+        <v>11.419999999999998</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
+        <f>B8*1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <f>B8*1</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SUM(B8:F8)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
         <v>0.68600000000000005</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="3"/>
-        <v>9.604000000000001</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="30">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.57099999999999995</v>
       </c>
       <c r="I8" s="2">
         <f>G8*H8</f>
-        <v>25.123999999999999</v>
+        <v>5.4880000000000004</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="30">
-        <v>6</v>
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
       </c>
       <c r="C9" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>B9*1</f>
+        <v>2</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E9" s="30">
+        <f>B9*1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.57099999999999995</v>
+        <f>SUM(B9:F9)</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.68600000000000005</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
-        <v>11.419999999999998</v>
+        <f>G9*H9</f>
+        <v>5.4880000000000004</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="30">
         <v>3</v>
@@ -2068,53 +2154,69 @@
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2</v>
+      </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4880000000000004</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="B12" s="30">
+        <v>16</v>
+      </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34.300000000000004</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2250,7 +2352,7 @@
       </c>
       <c r="I18" s="7">
         <f>SUM(I2:I17)</f>
-        <v>142.874</v>
+        <v>182.66200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2262,7 +2364,7 @@
       </c>
       <c r="I19" s="21">
         <f>I18/8</f>
-        <v>17.859249999999999</v>
+        <v>22.832750000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2381,7 @@
       </c>
       <c r="I20" s="21">
         <f>I18/'Calculo Costo Hora'!E2</f>
-        <v>3.57185</v>
+        <v>4.5665500000000003</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,7 +2398,7 @@
       </c>
       <c r="I21" s="21">
         <f>I20*'Calculo Costo Hora'!F12</f>
-        <v>2893198.5000000005</v>
+        <v>3698905.5000000009</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/doc/Cubicacion-Proyecto.xlsx
+++ b/doc/Cubicacion-Proyecto.xlsx
@@ -1150,6 +1150,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1300,6 +1343,49 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Rectangle 3" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 3" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1797,7 +1883,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1848,15 +1934,15 @@
         <v>64</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="16">
         <f t="shared" ref="C2:C17" si="0">B2*1</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="16">
         <f t="shared" ref="D2:D17" si="1">B2*1</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1866,14 +1952,14 @@
       </c>
       <c r="G2" s="19">
         <f t="shared" ref="G2:G17" si="2">SUM(B2:F2)</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H2" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I17" si="3">G2*H2</f>
-        <v>34.300000000000004</v>
+        <v>42.532000000000004</v>
       </c>
       <c r="J2" s="1"/>
       <c r="U2" s="13"/>
@@ -1919,15 +2005,15 @@
         <v>65</v>
       </c>
       <c r="B4" s="30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="14">
-        <f>B4*1</f>
-        <v>14</v>
+        <f t="shared" ref="C4:C9" si="4">B4*1</f>
+        <v>20</v>
       </c>
       <c r="D4" s="14">
-        <f>B4*1</f>
-        <v>14</v>
+        <f t="shared" ref="D4:D9" si="5">B4*1</f>
+        <v>20</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
@@ -1936,15 +2022,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>SUM(B4:F4)</f>
-        <v>44</v>
+        <f t="shared" ref="G4:G9" si="6">SUM(B4:F4)</f>
+        <v>62</v>
       </c>
       <c r="H4" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I4" s="2">
-        <f>G4*H4</f>
-        <v>30.184000000000001</v>
+        <f t="shared" ref="I4:I9" si="7">G4*H4</f>
+        <v>42.532000000000004</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1956,11 +2042,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="14">
-        <f>B5*1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D5" s="14">
-        <f>B5*1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E5" s="30">
@@ -1970,14 +2056,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="H5" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I5" s="2">
-        <f>G5*H5</f>
+        <f t="shared" si="7"/>
         <v>9.604000000000001</v>
       </c>
       <c r="J5" s="1"/>
@@ -1987,15 +2073,15 @@
         <v>66</v>
       </c>
       <c r="B6" s="30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="14">
-        <f>B6*1</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="D6" s="14">
-        <f>B6*1</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -2004,15 +2090,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(B6:F6)</f>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>0.57099999999999995</v>
       </c>
       <c r="I6" s="2">
-        <f>G6*H6</f>
-        <v>25.123999999999999</v>
+        <f t="shared" si="7"/>
+        <v>31.975999999999999</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -2024,11 +2110,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="14">
-        <f>B7*1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D7" s="14">
-        <f>B7*1</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="E7" s="30">
@@ -2038,14 +2124,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="H7" s="2">
         <v>0.57099999999999995</v>
       </c>
       <c r="I7" s="2">
-        <f>G7*H7</f>
+        <f t="shared" si="7"/>
         <v>11.419999999999998</v>
       </c>
       <c r="J7" s="1"/>
@@ -2058,11 +2144,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="14">
-        <f>B8*1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D8" s="14">
-        <f>B8*1</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E8" s="2">
@@ -2072,14 +2158,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f>SUM(B8:F8)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H8" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I8" s="2">
-        <f>G8*H8</f>
+        <f t="shared" si="7"/>
         <v>5.4880000000000004</v>
       </c>
       <c r="J8" s="1"/>
@@ -2092,11 +2178,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="14">
-        <f>B9*1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D9" s="14">
-        <f>B9*1</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E9" s="2">
@@ -2106,14 +2192,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f>SUM(B9:F9)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H9" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I9" s="2">
-        <f>G9*H9</f>
+        <f t="shared" si="7"/>
         <v>5.4880000000000004</v>
       </c>
       <c r="J9" s="1"/>
@@ -2352,7 +2438,7 @@
       </c>
       <c r="I18" s="7">
         <f>SUM(I2:I17)</f>
-        <v>182.66200000000001</v>
+        <v>210.09399999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,7 +2450,7 @@
       </c>
       <c r="I19" s="21">
         <f>I18/8</f>
-        <v>22.832750000000001</v>
+        <v>26.261749999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,7 +2467,7 @@
       </c>
       <c r="I20" s="21">
         <f>I18/'Calculo Costo Hora'!E2</f>
-        <v>4.5665500000000003</v>
+        <v>5.2523499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,7 +2484,7 @@
       </c>
       <c r="I21" s="21">
         <f>I20*'Calculo Costo Hora'!F12</f>
-        <v>3698905.5000000009</v>
+        <v>4254403.5000000009</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
